--- a/docs/LTA1_C/LTA1_C_13.11.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731791134.458945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731791139.3397458</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791134.458945.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791139.3397458.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>135.25</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.39</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731791142.3577569</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731791142.3577569.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731791142.3577569.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136.24</v>
       </c>
-      <c r="J4" t="n">
-        <v>136.24</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731791144.4503129</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731791145.2951574</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791144.4503129.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791145.2951574.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7004</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6982</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>22</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731791146.9413748</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731791153.195462</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791146.9413748.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791153.195462.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7002.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7025</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-22.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731791154.5497713</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731791161.6701338</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791154.5497713.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791161.6701338.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>486.45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>488.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-2.050000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731791161.8342526</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731791162.1732683</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791161.8342526.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791162.1732683.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>487.85</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>489.35</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731791162.9290156</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731791162.9290156.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731791162.9290156.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>490.85</v>
       </c>
-      <c r="J9" t="n">
-        <v>490.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731791164.9561841</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731791166.1500087</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791164.9561841.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791166.1500087.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>923.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>927.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.800000000000068</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731791166.6199284</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731791168.116308</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791166.6199284.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791168.116308.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>930.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>927.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.199999999999932</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731791173.4067886</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731791174.1774702</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791173.4067886.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791174.1774702.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>926.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>931.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>4.800000000000068</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731791174.2852457</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731791174.475606</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791174.2852457.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791174.475606.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>932.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>929.8</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1095,95 +1177,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731791175.1756055</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731791175.1756055.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731791175.1756055.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>932.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>932.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>934.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731791175.9031827</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731791183.4575691</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791175.9031827.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791183.4575691.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>37.73</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>38.055</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.3250000000000028</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -1191,95 +1285,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731791186.5699003</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731791186.5699003.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731791186.5699003.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>38.395</v>
       </c>
-      <c r="J16" t="n">
-        <v>38.395</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731791188.3188815</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731791189.5746481</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791188.3188815.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791189.5746481.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1233.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1227.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1287,51 +1393,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731791190.4093854</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731791190.6344104</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791190.4093854.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791190.6344104.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1233.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1227</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1339,51 +1451,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731791191.0325124</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731791192.7188308</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791191.0325124.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791192.7188308.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1235.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1233.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731791195.3944154</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731791198.892346</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791195.3944154.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791198.892346.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1229.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1228.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.6000000000001364</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1443,95 +1567,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731791200.8316238</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731791200.8316238.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731791200.8316238.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1234.6</v>
       </c>
-      <c r="J21" t="n">
-        <v>1234.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1233.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.399999999999864</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731791201.1402354</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731791203.3751314</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791201.1402354.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791203.3751314.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>80.83</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>80.77</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731791203.7999983</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731791207.4549694</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791203.7999983.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791207.4549694.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>81.14</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>80.93000000000001</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2099999999999937</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731791208.486019</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731791212.509811</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791208.486019.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791212.509811.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>80.66</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>80.64</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731791213.625621</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731791220.7272444</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791213.625621.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791220.7272444.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>14.155</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>14.208</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.05300000000000082</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1695,51 +1849,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731791220.9427547</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731791221.446646</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791220.9427547.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791221.446646.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>14.138</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>14.219</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.08099999999999952</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1747,51 +1907,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731791222.089703</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731791223.4942434</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791222.089703.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791223.4942434.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>14.164</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>14.235</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.07099999999999973</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1799,95 +1965,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731791224.5989861</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731791224.5989861.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731791224.5989861.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>14.281</v>
       </c>
-      <c r="J28" t="n">
-        <v>14.281</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.08799999999999919</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731791225.7452948</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731791228.4500074</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791225.7452948.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791228.4500074.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>104.34</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>104.67</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1895,51 +2073,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731791228.5744748</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731791234.4538038</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791228.5744748.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731791234.4538038.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>105.25</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>104.9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1947,95 +2131,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731791237.3017654</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731791237.3017654.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731791237.3017654.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>105.84</v>
       </c>
-      <c r="J31" t="n">
-        <v>105.84</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>106.15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731791238.5366127</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731791245.4582393</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731791238.5366127.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731791245.4582393.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>347.61</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>349.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1.990000000000009</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2043,95 +2239,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731791247.008513</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731791247.008513.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731791247.008513.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>351.5</v>
       </c>
-      <c r="J33" t="n">
-        <v>351.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.2099999999999795</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731791248.8800182</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731791250.1962955</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791248.8800182.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791250.1962955.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>2776.25</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>2771.75</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>4.5</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2139,51 +2347,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731791250.4863472</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731791256.147202</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791250.4863472.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791256.147202.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>2778.7</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>2782.75</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-4.050000000000182</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2191,51 +2405,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731791256.85566</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731791259.5400581</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791256.85566.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791259.5400581.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>2777.1</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>2788.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>11.40000000000009</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2243,95 +2463,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731791260.346539</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731791260.346539.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731791260.346539.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>2789.5</v>
       </c>
-      <c r="J37" t="n">
-        <v>2789.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-5.699999999999818</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731791262.6185162</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731791263.2421768</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791262.6185162.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791263.2421768.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>590.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>594.3</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -2339,51 +2571,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731791264.471654</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731791266.103385</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791264.471654.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791266.103385.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>597.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>594.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>3.300000000000068</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2391,51 +2629,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731791267.5168087</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731791271.873052</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791267.5168087.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731791271.873052.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>590.9</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>593.1</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2443,44 +2687,50 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731791273.442945</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731791273.442945.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731791273.442945.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>595.1</v>
       </c>
-      <c r="J41" t="n">
-        <v>595.1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>594.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2541,19 +2791,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.19999999999982</v>
+        <v>15.59999999999968</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.839999999999963</v>
+        <v>3.119999999999936</v>
       </c>
       <c r="E2" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -2563,19 +2813,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.60000000000014</v>
+        <v>12.60000000000014</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920000000000027</v>
+        <v>2.520000000000027</v>
       </c>
       <c r="E3" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -2585,19 +2835,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09899999999999842</v>
+        <v>0.01099999999999923</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02474999999999961</v>
+        <v>0.002749999999999808</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -2607,19 +2857,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.84999999999991</v>
+        <v>6.150000000000091</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.962499999999977</v>
+        <v>1.537500000000023</v>
       </c>
       <c r="E5" t="n">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -2629,19 +2879,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.300000000000068</v>
+        <v>9.800000000000068</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.325000000000017</v>
+        <v>2.450000000000017</v>
       </c>
       <c r="E6" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="F6" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
@@ -2651,19 +2901,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6799999999999926</v>
+        <v>0.3699999999999903</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2266666666666642</v>
+        <v>0.1233333333333301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
       <c r="F7" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -2673,19 +2923,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5500000000000114</v>
+        <v>-3.050000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1833333333333371</v>
+        <v>-1.01666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.11</v>
+        <v>-0.62</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="9">
@@ -2717,19 +2967,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.990000000000009</v>
+        <v>-2.199999999999989</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9950000000000045</v>
+        <v>-1.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5700000000000001</v>
+        <v>-0.6300000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.29</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="11">
@@ -2739,19 +2989,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1399999999999864</v>
+        <v>-0.2899999999999636</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06999999999999318</v>
+        <v>-0.1449999999999818</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1</v>
+        <v>-0.21</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="12">
@@ -2783,19 +3033,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3250000000000028</v>
+        <v>-0.3350000000000009</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1625000000000014</v>
+        <v>-0.1675000000000004</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.86</v>
+        <v>-0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="14">
